--- a/Manpower_Calculation_Starbucks_Team_updated.xlsx
+++ b/Manpower_Calculation_Starbucks_Team_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aconnolly\Documents\Bootcamp\Is_Starbucks_your_cup_of_coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CBDB305-7FED-4E58-98F1-7B9A6058E7A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216C5B8D-1702-43A1-B2E2-7FF1CB31D0CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCD9D9D5-993F-4FDB-B545-D115C471AC5E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CCD9D9D5-993F-4FDB-B545-D115C471AC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Is Starbucks Your Cup of Coffee" sheetId="1" r:id="rId1"/>
@@ -699,15 +699,6 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -730,12 +721,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -801,25 +786,40 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1142,8 +1142,8 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:L23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1151,65 +1151,65 @@
     <col min="1" max="1" width="68.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.453125" style="6" customWidth="1"/>
     <col min="4" max="7" width="8.90625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="16.90625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="20.6328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="20.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7265625" style="11" customWidth="1"/>
     <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1221,248 +1221,248 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="35"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="51">
         <v>60</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="51">
         <v>60</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="51">
         <v>60</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57">
+      <c r="E5" s="52"/>
+      <c r="F5" s="51">
         <v>60</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="51">
         <v>60</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="49">
         <f>SUM(B5:G5)</f>
         <v>300</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="38">
         <f>H5/60</f>
         <v>5</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="31">
         <v>120</v>
       </c>
       <c r="K5" s="15">
         <f>J5/60</f>
         <v>2</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="16">
         <f>K5-I5</f>
         <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="51">
         <v>60</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="53">
         <v>180</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="51">
         <v>60</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="57">
+      <c r="E6" s="52"/>
+      <c r="F6" s="51">
         <v>120</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="51">
         <v>120</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="50">
         <f>SUM(B6:G6)</f>
         <v>540</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="39">
         <f>H6/60</f>
         <v>9</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="32">
         <v>20</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" ref="K6:K36" si="0">J6/60</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="17">
         <f t="shared" ref="L6:L36" si="1">K6-I6</f>
         <v>-8.6666666666666661</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="51">
         <v>5</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="53">
         <v>20</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="51">
         <v>5</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57">
+      <c r="E7" s="52"/>
+      <c r="F7" s="51">
         <v>10</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="51">
         <v>5</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="50">
         <f t="shared" ref="H7" si="2">SUM(B7:G7)</f>
         <v>45</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="39">
         <f t="shared" ref="I7:I35" si="3">H7/60</f>
         <v>0.75</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="32">
         <v>20</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="17">
         <f t="shared" si="1"/>
         <v>-0.41666666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59">
+      <c r="B8" s="52"/>
+      <c r="C8" s="53">
         <v>45</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57">
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="51">
         <v>5</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="55">
+      <c r="G8" s="52"/>
+      <c r="H8" s="50">
         <f>SUM(B8:G8)</f>
         <v>50</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="39">
         <f>H8/60</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="32">
         <v>60</v>
       </c>
       <c r="K8" s="12">
         <f>J8/60</f>
         <v>1</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="17">
         <f>K8-I8</f>
         <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="51">
         <v>24</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="51">
         <v>24</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="51">
         <v>24</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57">
+      <c r="E11" s="52"/>
+      <c r="F11" s="51">
         <v>24</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="51">
         <v>24</v>
       </c>
-      <c r="H11" s="49">
-        <f t="shared" ref="H11:H35" si="4">SUM(B11:G11)</f>
+      <c r="H11" s="44">
+        <f t="shared" ref="H11:H34" si="4">SUM(B11:G11)</f>
         <v>120</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="38">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="31">
         <v>20</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="16">
         <f t="shared" si="1"/>
         <v>-1.6666666666666667</v>
       </c>
@@ -1471,38 +1471,38 @@
       <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="51">
         <v>5</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="53">
         <v>5</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="51">
         <v>5</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57">
+      <c r="E12" s="52"/>
+      <c r="F12" s="51">
         <v>5</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="51">
         <v>5</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="45">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="39">
         <f t="shared" si="3"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="32">
         <v>15</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="17">
         <f t="shared" si="1"/>
         <v>-0.16666666666666669</v>
       </c>
@@ -1511,111 +1511,111 @@
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="51">
         <v>10</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="53">
         <v>10</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="51">
         <v>10</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57">
+      <c r="E13" s="52"/>
+      <c r="F13" s="51">
         <v>10</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="51">
         <v>10</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="45">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="39">
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="32">
         <v>15</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="17">
         <f t="shared" si="1"/>
         <v>-0.58333333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="26"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="51">
         <v>320</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="51">
         <v>200</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="51">
         <v>60</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57">
+      <c r="E16" s="52"/>
+      <c r="F16" s="51">
         <v>120</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="51">
         <v>210</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="44">
         <f t="shared" si="4"/>
         <v>910</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="38">
         <f t="shared" si="3"/>
         <v>15.166666666666666</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="31">
         <v>40</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="16">
         <f t="shared" si="1"/>
         <v>-14.5</v>
       </c>
@@ -1624,101 +1624,101 @@
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="51">
         <v>60</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="53">
         <v>5</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="51">
         <v>15</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="57">
+      <c r="E17" s="52"/>
+      <c r="F17" s="51">
         <v>30</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="51">
         <v>15</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="45">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="39">
         <f t="shared" si="3"/>
         <v>2.0833333333333335</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="32">
         <v>20</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="17">
         <f t="shared" si="1"/>
         <v>-1.7500000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="59"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="51">
         <v>180</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51">
         <v>90</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57">
+      <c r="E20" s="51"/>
+      <c r="F20" s="51">
         <v>120</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="51">
         <v>90</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="44">
         <v>480</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="38">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="31">
         <f>60*6</f>
         <v>360</v>
       </c>
@@ -1726,7 +1726,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="16">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
@@ -1735,37 +1735,37 @@
       <c r="A21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="51">
         <v>30</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="51">
         <v>80</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="51">
         <v>25</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57">
+      <c r="E21" s="51"/>
+      <c r="F21" s="51">
         <v>60</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="51">
         <v>300</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="45">
         <v>400</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="39">
         <f>H21/60</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="32">
         <v>60</v>
       </c>
       <c r="K21" s="12">
         <f>J21/60</f>
         <v>1</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="17">
         <f>K21-I21</f>
         <v>-5.666666666666667</v>
       </c>
@@ -1774,29 +1774,29 @@
       <c r="A22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51">
         <v>400</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="49">
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="44">
         <v>400</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="38">
         <f>H22/60</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="31">
         <v>60</v>
       </c>
       <c r="K22" s="15">
         <f>J22/60</f>
         <v>1</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="16">
         <f>K22-I22</f>
         <v>-5.666666666666667</v>
       </c>
@@ -1805,103 +1805,103 @@
       <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="51">
         <v>180</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="51">
         <v>180</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="51">
         <v>30</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57">
+      <c r="E23" s="51"/>
+      <c r="F23" s="51">
         <v>60</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="51">
         <v>60</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="44">
         <v>510</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="38">
         <f>H23/60</f>
         <v>8.5</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="31">
         <v>60</v>
       </c>
       <c r="K23" s="15">
         <f>J23/60</f>
         <v>1</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="16">
         <f>K23-I23</f>
         <v>-7.5</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="36"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="31"/>
       <c r="K24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51">
         <v>15</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="44">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="38">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="J26" s="36"/>
+      <c r="J26" s="31"/>
       <c r="K26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="16">
         <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
@@ -1910,54 +1910,54 @@
       <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="51">
         <v>20</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="51">
         <v>20</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="51">
         <v>30</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57">
+      <c r="E27" s="51"/>
+      <c r="F27" s="51">
         <v>20</v>
       </c>
-      <c r="G27" s="57">
+      <c r="G27" s="51">
         <v>200</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="45">
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="39">
         <f t="shared" si="3"/>
         <v>4.833333333333333</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27" s="32">
         <v>120</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="17">
         <f t="shared" si="1"/>
         <v>-2.833333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="26">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1967,57 +1967,57 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="51">
         <v>30</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="51">
         <v>20</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="51">
         <v>20</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57">
+      <c r="E30" s="51"/>
+      <c r="F30" s="51">
         <v>10</v>
       </c>
-      <c r="G30" s="57">
+      <c r="G30" s="51">
         <v>30</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="44">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="38">
         <f>H30/60</f>
         <v>1.8333333333333333</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="31">
         <v>45</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="16">
         <f t="shared" si="1"/>
         <v>-1.0833333333333333</v>
       </c>
@@ -2026,60 +2026,57 @@
       <c r="A31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="51">
         <v>30</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="51">
         <v>45</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="51">
         <v>60</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57">
+      <c r="E31" s="51"/>
+      <c r="F31" s="51">
         <v>30</v>
       </c>
-      <c r="G31" s="57">
+      <c r="G31" s="51">
         <v>15</v>
       </c>
-      <c r="H31" s="50">
-        <f t="shared" si="4"/>
+      <c r="H31" s="45">
+        <f>SUM(B31:G31)</f>
         <v>180</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="39">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="32">
         <v>25</v>
       </c>
       <c r="K31" s="12">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="17">
         <f t="shared" si="1"/>
         <v>-2.5833333333333335</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="45">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="26">
+      <c r="J32" s="33"/>
+      <c r="K32" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2089,48 +2086,49 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="18"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57">
+      <c r="B34" s="51"/>
+      <c r="C34" s="51">
         <v>30</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57">
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="44">
+        <f>SUM(B34:G34)</f>
         <v>30</v>
       </c>
-      <c r="I34" s="43">
-        <f t="shared" si="3"/>
+      <c r="I34" s="38">
+        <f>H34/60</f>
         <v>0.5</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="31">
         <v>75</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="16">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
@@ -2139,53 +2137,54 @@
       <c r="A35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="57">
-        <v>15</v>
-      </c>
-      <c r="C35" s="57">
-        <v>30</v>
-      </c>
-      <c r="D35" s="57">
-        <v>15</v>
-      </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57">
-        <v>15</v>
-      </c>
-      <c r="G35" s="57">
-        <v>15</v>
-      </c>
-      <c r="H35" s="57">
-        <v>90</v>
-      </c>
-      <c r="I35" s="44">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="J35" s="37">
+      <c r="B35" s="51">
+        <v>60</v>
+      </c>
+      <c r="C35" s="51">
+        <v>60</v>
+      </c>
+      <c r="D35" s="51">
+        <v>60</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51">
+        <v>60</v>
+      </c>
+      <c r="G35" s="51">
+        <v>60</v>
+      </c>
+      <c r="H35" s="44">
+        <f>SUM(B35:G35)</f>
+        <v>300</v>
+      </c>
+      <c r="I35" s="39">
+        <f>H35/60</f>
+        <v>5</v>
+      </c>
+      <c r="J35" s="32">
         <v>75</v>
       </c>
       <c r="K35" s="12">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="17">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="26">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2195,52 +2194,52 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="26">
         <f t="shared" ref="B37:G37" si="5">SUM(B5:B35)</f>
-        <v>1029</v>
-      </c>
-      <c r="C37" s="31">
+        <v>1074</v>
+      </c>
+      <c r="C37" s="26">
         <f t="shared" si="5"/>
-        <v>1354</v>
-      </c>
-      <c r="D37" s="31">
+        <v>1384</v>
+      </c>
+      <c r="D37" s="26">
         <f t="shared" si="5"/>
-        <v>509</v>
-      </c>
-      <c r="E37" s="31">
+        <v>554</v>
+      </c>
+      <c r="E37" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="26">
         <f t="shared" si="5"/>
-        <v>699</v>
-      </c>
-      <c r="G37" s="32">
+        <v>744</v>
+      </c>
+      <c r="G37" s="27">
         <f t="shared" si="5"/>
-        <v>1174</v>
-      </c>
-      <c r="H37" s="51">
+        <v>1219</v>
+      </c>
+      <c r="H37" s="46">
         <f>SUM(H5:H36)</f>
-        <v>4670</v>
-      </c>
-      <c r="I37" s="33">
+        <v>4880</v>
+      </c>
+      <c r="I37" s="28">
         <f>SUM(I5:I36)</f>
-        <v>77.833333333333314</v>
-      </c>
-      <c r="J37" s="39">
+        <v>81.333333333333314</v>
+      </c>
+      <c r="J37" s="34">
         <f>SUM(J4:J36)</f>
         <v>1210</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K37" s="25">
         <f>SUM(K4:K36)</f>
         <v>20.166666666666668</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37" s="25">
         <f>SUM(L4:L36)</f>
-        <v>-57.666666666666664</v>
+        <v>-61.166666666666664</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
@@ -2263,17 +2262,17 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="54" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="61">
+      <c r="B42" s="55">
         <f>I37</f>
-        <v>77.833333333333314</v>
+        <v>81.333333333333314</v>
       </c>
     </row>
   </sheetData>
